--- a/data/gbuying.xlsx
+++ b/data/gbuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06A379-5E08-FA46-82E9-F0EABEB6C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17952054-5A90-0D4C-AE09-FCF2BF13DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="27180" windowHeight="16880" xr2:uid="{F954F056-1573-DB4E-81D1-E6EB2C1B2E92}"/>
+    <workbookView xWindow="12300" yWindow="-27180" windowWidth="27180" windowHeight="16880" xr2:uid="{F954F056-1573-DB4E-81D1-E6EB2C1B2E92}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -362,12 +362,301 @@
     <t>/https://www.facebook.com/groups/831740536938972</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>夯吉團購</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長慶三街77號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一～五: 12:00 - 20:00 週六日公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY-G12.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://linktr.ee/poseidon.95525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.facebook.com/groups/555375356714468/?ref=share&amp;mibextid=S66gvF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/10/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>團購各式商品(要加入群組才能+1唷)
+記得加闆闆私line方便拉您入群唷（點選下列網址加入）
+https://linktr.ee/poseidon.95525 &lt;br&gt;
+取貨地址：桃園市龜山區長慶三街77號&lt;br&gt;
+營業時間：週一至週五中午12點-晚上8點&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活用品, 零食, 新鮮蔬果, 冷凍食品, 國內外名店商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7妮妮揪團購</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文學路218號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/A7%E5%A6%AE%E5%A6%AE%E6%8F%AA%E5%9C%98%E8%B3%BC/@25.0414958,121.3859118,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b79d1ac5e5:0xbb01b9f689da446!8m2!3d25.041491!4d121.3884867!16s%2Fg%2F11kpy12ktq?authuser=0&amp;entry=ttu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30 - 20:30 週日,一公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0936-199-887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.facebook.com/groups/396892688488670/?ref=share&amp;mibextid=S66gvF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/ti/g/vutSwB_JjY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY-G13.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>❣️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">如何訂購及取貨? &lt;br&gt;
+🟡訂購商品請於社團內商品文章下留言
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>🔺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>留言時為了讓系統能順利抓取團友們的留言請依照以下打法👇🏻&lt;br&gt;
+正確：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>⭕️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>A+1，B+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>⭕️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>+1
+錯誤：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>AB各ㄧ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> （</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>➕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">）1…..等等&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>📣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請大家務必加小幫手帳號
+#Michael Lai 為好友，這樣才收得到我們的訊息哦~~</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>📢 我們採取到店取貨方式&lt;br&gt;
+部分商品會告知到貨時間，預購商品到貨系統會通知&lt;br&gt;
+📍 店面地址：桃園市龜山區文學路218號&lt;br&gt;
+🔺回覆時間：隨時回覆&lt;br&gt;
+🔺店面營業時間： 星期二～五12:30🕜～19:00🕣
+六日一&amp; 國定假日公休&lt;br&gt;
+1️⃣到現場取貨付款。&lt;br&gt;
+2️⃣為不讓大家久等，大部份商品，快速加，就是快速到貨，所以結單地速度也很快，敬請把握！開版商品有需要直接在留言處+1。&lt;br&gt;
+3️⃣取貨期限提醒：除常溫商品外，其他商品到貨大多會明確註明到貨日
+蔬菜、水果、蛋糕、熟食：到貨日，當天取貨（為保持新鮮，不賣隔夜蛋糕）
+❄冷藏.冷凍食品：到貨日，當天取貨
+🍪餅乾糖果五金生活用品（常溫商品）：貨到通知，另通知取貨時間，未取則會提供給其他客人哦！&lt;br&gt;
+4️⃣水果蛋糕熟食及冷藏冷凍等商品，為了讓大家拿到最新鮮的東西，皆會註明取貨日，取貨日當天取貨
+🔺P.s若臨時有事無法取貨，需要幫您保留，請留言，最多保留1天(到貨隔天），超過18:30未於公告回覆要留貨的話，就會賣掉哦。&lt;br&gt;
+5️⃣吃的商品有問題的話（⚠️當天拿當天換）
+用的商品7天內有問題拿回來退（⚠️若只是外觀小瑕疵不影響功能不做退換哦！）&lt;br&gt;
+6️⃣團購商品利潤低，務必拜託大家下單要來配合取貨哦！如無法配合請不要下單🙏🏻非常感謝大家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,6 +706,33 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -483,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,6 +846,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -847,18 +1190,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B11BB3-1E90-2C43-B475-F86463603E01}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="13"/>
     <col min="5" max="5" width="33.83203125" customWidth="1"/>
     <col min="7" max="7" width="34.83203125" customWidth="1"/>
@@ -927,257 +1270,349 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="320">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="17">
+        <v>70</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+    </row>
+    <row r="3" spans="1:20" ht="320">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C3" s="8">
         <v>44909</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D3" s="12">
         <v>1425</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="112">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8">
-        <v>44475</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" t="s">
-        <v>54</v>
+      <c r="Q3" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="9" t="s">
-        <v>56</v>
+    <row r="4" spans="1:20" ht="112">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8">
-        <v>44259</v>
+        <v>44475</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="80">
-      <c r="A5" s="9" t="s">
-        <v>63</v>
+    <row r="5" spans="1:20" ht="112">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8">
-        <v>42817</v>
+        <v>44771</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="112">
+    <row r="6" spans="1:20" ht="409.6">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8">
-        <v>44771</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="12"/>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>70</v>
+        <v>98</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="9" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8">
-        <v>44030</v>
+        <v>44259</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="80">
+      <c r="A8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <v>42817</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44030</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>78</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N9" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q9" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{CA6DD58C-EF7D-8E45-84C0-1CBD884A6DFF}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{39A84984-9F75-4A44-B5B6-FFF930E203C6}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{197BEB85-291A-2D4D-B8EA-58489965A3E2}"/>
-    <hyperlink ref="K2" r:id="rId4" xr:uid="{CD188681-34B6-3940-AC55-48B9E592117C}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{65911878-E83C-104C-8238-B9E37D888163}"/>
-    <hyperlink ref="M3" r:id="rId6" xr:uid="{4592912F-6108-914A-BCAB-B208AC0CCEA3}"/>
-    <hyperlink ref="Q2" r:id="rId7" xr:uid="{DE1AC98E-DFF4-2A4E-9AE0-A827E17B6EB8}"/>
-    <hyperlink ref="Q4" r:id="rId8" xr:uid="{D6714E07-262C-8049-BD6A-C16730CDADE8}"/>
-    <hyperlink ref="M4" r:id="rId9" xr:uid="{28CAB9BD-AA2C-934B-8A92-A1C476D3F058}"/>
-    <hyperlink ref="I4" r:id="rId10" xr:uid="{8B6467D1-5BB7-4248-87EF-B88FA1136361}"/>
-    <hyperlink ref="Q5" r:id="rId11" xr:uid="{090106F9-1692-B846-918C-7D136DD8EDD6}"/>
-    <hyperlink ref="M5" r:id="rId12" xr:uid="{40DDA9C7-DD05-7249-A2A5-C4D31F67846E}"/>
-    <hyperlink ref="M6" r:id="rId13" xr:uid="{0E40B1A2-64A8-8042-B705-FCCA9F7D1909}"/>
-    <hyperlink ref="M7" r:id="rId14" xr:uid="{D6AB8A50-1BA7-234F-A118-68A962CD0857}"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{CA6DD58C-EF7D-8E45-84C0-1CBD884A6DFF}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{39A84984-9F75-4A44-B5B6-FFF930E203C6}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{197BEB85-291A-2D4D-B8EA-58489965A3E2}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{CD188681-34B6-3940-AC55-48B9E592117C}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{65911878-E83C-104C-8238-B9E37D888163}"/>
+    <hyperlink ref="M4" r:id="rId6" xr:uid="{4592912F-6108-914A-BCAB-B208AC0CCEA3}"/>
+    <hyperlink ref="Q3" r:id="rId7" xr:uid="{DE1AC98E-DFF4-2A4E-9AE0-A827E17B6EB8}"/>
+    <hyperlink ref="Q7" r:id="rId8" xr:uid="{D6714E07-262C-8049-BD6A-C16730CDADE8}"/>
+    <hyperlink ref="M7" r:id="rId9" xr:uid="{28CAB9BD-AA2C-934B-8A92-A1C476D3F058}"/>
+    <hyperlink ref="I7" r:id="rId10" xr:uid="{8B6467D1-5BB7-4248-87EF-B88FA1136361}"/>
+    <hyperlink ref="Q8" r:id="rId11" xr:uid="{090106F9-1692-B846-918C-7D136DD8EDD6}"/>
+    <hyperlink ref="M8" r:id="rId12" xr:uid="{40DDA9C7-DD05-7249-A2A5-C4D31F67846E}"/>
+    <hyperlink ref="M5" r:id="rId13" xr:uid="{0E40B1A2-64A8-8042-B705-FCCA9F7D1909}"/>
+    <hyperlink ref="M9" r:id="rId14" xr:uid="{D6AB8A50-1BA7-234F-A118-68A962CD0857}"/>
+    <hyperlink ref="I2" r:id="rId15" xr:uid="{764BC226-5160-3442-BCEA-7B4F58AB376D}"/>
+    <hyperlink ref="M2" r:id="rId16" xr:uid="{34D7AA83-BC63-3044-B013-F82C5AD03D42}"/>
+    <hyperlink ref="L2" r:id="rId17" xr:uid="{739629B1-F18A-4C45-95FC-4837F6B63FC4}"/>
+    <hyperlink ref="Q6" r:id="rId18" xr:uid="{4EBE2EBB-03C1-EE43-B6B7-3C59F2D5AE00}"/>
+    <hyperlink ref="L6" r:id="rId19" xr:uid="{D9E3F78D-6D78-4C4B-8ABA-384115EF8122}"/>
+    <hyperlink ref="M6" r:id="rId20" xr:uid="{C0586F05-0EEF-4F46-A06F-8B589D6D7AB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/gbuying.xlsx
+++ b/data/gbuying.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17952054-5A90-0D4C-AE09-FCF2BF13DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6E3E1-5ECA-2F49-95F5-722392E4B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="-27180" windowWidth="27180" windowHeight="16880" xr2:uid="{F954F056-1573-DB4E-81D1-E6EB2C1B2E92}"/>
+    <workbookView xWindow="15220" yWindow="-26880" windowWidth="27180" windowHeight="14120" xr2:uid="{F954F056-1573-DB4E-81D1-E6EB2C1B2E92}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
   <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -651,6 +651,54 @@
 6️⃣團購商品利潤低，務必拜託大家下單要來配合取貨哦！如無法配合請不要下單🙏🏻非常感謝大家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>鮮食拼團-林口a7店</t>
+  </si>
+  <si>
+    <t>G14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/11/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青路361號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 20:00 週六日公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY-G14.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reurl.cc/dmpjo8</t>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/@971fotqo?from=page&amp;accountId=971fotqo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;Facebook搜尋🔍: 「鮮食拼團-林口a7店」&lt;/li&gt;
+&lt;li&gt;取貨地址：桃園市龜山區文青路361號&lt;/li&gt;
+&lt;li&gt;營業時間：周一至周五（11:00~20:00）&lt;/li&gt;
+&lt;li&gt;店休時間：週六日&amp; 國定假日公休&lt;/li&gt;
+&lt;li&gt;本社團商品都是預購約3-15天，難免會遇到廠商斷貨的情況，再請大家耐心等待。貨到的時候會整理好通知大家取貨。&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美妝保養, 生活雜貨, 好吃食集, 各國代購, 批發團購</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/No.+361,+Wenqing+Rd,+Guishan+District,+Taoyuan+City,+333/@25.0395205,121.3893913,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a77171cbf585:0xf45b856ecb63a27e!8m2!3d25.0395157!4d121.3919716!16s%2Fg%2F11h56ccnvn?authuser=0&amp;entry=ttu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -799,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +896,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -860,20 +935,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1190,13 +1253,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B11BB3-1E90-2C43-B475-F86463603E01}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1270,347 +1333,397 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="17">
-        <v>70</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="21" t="s">
-        <v>87</v>
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="126" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>89</v>
+        <v>109</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="P2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="Q2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
     </row>
-    <row r="3" spans="1:20" ht="320">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:20" s="6" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="17">
+        <v>70</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+    </row>
+    <row r="4" spans="1:20" ht="320">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C4" s="8">
         <v>44909</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D4" s="12">
         <v>1425</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="112">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8">
-        <v>44475</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" t="s">
-        <v>54</v>
+      <c r="Q4" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="112">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8">
-        <v>44771</v>
+        <v>44475</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="409.6">
+    <row r="6" spans="1:20" ht="112">
       <c r="A6" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44771</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>94</v>
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="9" t="s">
-        <v>56</v>
+    <row r="7" spans="1:20" ht="409.6">
+      <c r="A7" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8">
-        <v>44259</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="12"/>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
-        <v>60</v>
+        <v>99</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
+        <v>98</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="80">
+    <row r="8" spans="1:20">
       <c r="A8" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8">
-        <v>42817</v>
+        <v>44259</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="80">
       <c r="A9" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8">
-        <v>44030</v>
+        <v>42817</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44030</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>79</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>78</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N10" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q10" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{CA6DD58C-EF7D-8E45-84C0-1CBD884A6DFF}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{39A84984-9F75-4A44-B5B6-FFF930E203C6}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{197BEB85-291A-2D4D-B8EA-58489965A3E2}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{CD188681-34B6-3940-AC55-48B9E592117C}"/>
-    <hyperlink ref="I4" r:id="rId5" xr:uid="{65911878-E83C-104C-8238-B9E37D888163}"/>
-    <hyperlink ref="M4" r:id="rId6" xr:uid="{4592912F-6108-914A-BCAB-B208AC0CCEA3}"/>
-    <hyperlink ref="Q3" r:id="rId7" xr:uid="{DE1AC98E-DFF4-2A4E-9AE0-A827E17B6EB8}"/>
-    <hyperlink ref="Q7" r:id="rId8" xr:uid="{D6714E07-262C-8049-BD6A-C16730CDADE8}"/>
-    <hyperlink ref="M7" r:id="rId9" xr:uid="{28CAB9BD-AA2C-934B-8A92-A1C476D3F058}"/>
-    <hyperlink ref="I7" r:id="rId10" xr:uid="{8B6467D1-5BB7-4248-87EF-B88FA1136361}"/>
-    <hyperlink ref="Q8" r:id="rId11" xr:uid="{090106F9-1692-B846-918C-7D136DD8EDD6}"/>
-    <hyperlink ref="M8" r:id="rId12" xr:uid="{40DDA9C7-DD05-7249-A2A5-C4D31F67846E}"/>
-    <hyperlink ref="M5" r:id="rId13" xr:uid="{0E40B1A2-64A8-8042-B705-FCCA9F7D1909}"/>
-    <hyperlink ref="M9" r:id="rId14" xr:uid="{D6AB8A50-1BA7-234F-A118-68A962CD0857}"/>
-    <hyperlink ref="I2" r:id="rId15" xr:uid="{764BC226-5160-3442-BCEA-7B4F58AB376D}"/>
-    <hyperlink ref="M2" r:id="rId16" xr:uid="{34D7AA83-BC63-3044-B013-F82C5AD03D42}"/>
-    <hyperlink ref="L2" r:id="rId17" xr:uid="{739629B1-F18A-4C45-95FC-4837F6B63FC4}"/>
-    <hyperlink ref="Q6" r:id="rId18" xr:uid="{4EBE2EBB-03C1-EE43-B6B7-3C59F2D5AE00}"/>
-    <hyperlink ref="L6" r:id="rId19" xr:uid="{D9E3F78D-6D78-4C4B-8ABA-384115EF8122}"/>
-    <hyperlink ref="M6" r:id="rId20" xr:uid="{C0586F05-0EEF-4F46-A06F-8B589D6D7AB4}"/>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{CA6DD58C-EF7D-8E45-84C0-1CBD884A6DFF}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{39A84984-9F75-4A44-B5B6-FFF930E203C6}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{197BEB85-291A-2D4D-B8EA-58489965A3E2}"/>
+    <hyperlink ref="K4" r:id="rId4" xr:uid="{CD188681-34B6-3940-AC55-48B9E592117C}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{65911878-E83C-104C-8238-B9E37D888163}"/>
+    <hyperlink ref="M5" r:id="rId6" xr:uid="{4592912F-6108-914A-BCAB-B208AC0CCEA3}"/>
+    <hyperlink ref="Q4" r:id="rId7" xr:uid="{DE1AC98E-DFF4-2A4E-9AE0-A827E17B6EB8}"/>
+    <hyperlink ref="Q8" r:id="rId8" xr:uid="{D6714E07-262C-8049-BD6A-C16730CDADE8}"/>
+    <hyperlink ref="M8" r:id="rId9" xr:uid="{28CAB9BD-AA2C-934B-8A92-A1C476D3F058}"/>
+    <hyperlink ref="I8" r:id="rId10" xr:uid="{8B6467D1-5BB7-4248-87EF-B88FA1136361}"/>
+    <hyperlink ref="Q9" r:id="rId11" xr:uid="{090106F9-1692-B846-918C-7D136DD8EDD6}"/>
+    <hyperlink ref="M9" r:id="rId12" xr:uid="{40DDA9C7-DD05-7249-A2A5-C4D31F67846E}"/>
+    <hyperlink ref="M6" r:id="rId13" xr:uid="{0E40B1A2-64A8-8042-B705-FCCA9F7D1909}"/>
+    <hyperlink ref="M10" r:id="rId14" xr:uid="{D6AB8A50-1BA7-234F-A118-68A962CD0857}"/>
+    <hyperlink ref="I3" r:id="rId15" xr:uid="{764BC226-5160-3442-BCEA-7B4F58AB376D}"/>
+    <hyperlink ref="M3" r:id="rId16" xr:uid="{34D7AA83-BC63-3044-B013-F82C5AD03D42}"/>
+    <hyperlink ref="L3" r:id="rId17" xr:uid="{739629B1-F18A-4C45-95FC-4837F6B63FC4}"/>
+    <hyperlink ref="Q7" r:id="rId18" xr:uid="{4EBE2EBB-03C1-EE43-B6B7-3C59F2D5AE00}"/>
+    <hyperlink ref="L7" r:id="rId19" xr:uid="{D9E3F78D-6D78-4C4B-8ABA-384115EF8122}"/>
+    <hyperlink ref="M7" r:id="rId20" xr:uid="{C0586F05-0EEF-4F46-A06F-8B589D6D7AB4}"/>
+    <hyperlink ref="A2" r:id="rId21" display="https://www.facebook.com/profile.php?id=61550273143551&amp;__cft__%5b0%5d=AZVmhPbnUSacT7Kj_oHrWLwkOLgUj8PZf8R5A4Z-Pb4dj-tGcB4sxcFlbSvMc1B-QEmBtD4TIvQJsg4qHrCf4waeMUKqrOWf6lqhO92XYF-El3_L90Ykw_rskUfUITyLSGk0LhdGk8U3ujYOSQ8Yyf3zA24OGyEjlr50zcPOSWz1-g" xr:uid="{01F0075C-E373-9441-8BAB-7BA906EF0F9C}"/>
+    <hyperlink ref="L2" r:id="rId22" xr:uid="{27F8BC81-4168-7A4C-B06D-5452EDCA2647}"/>
+    <hyperlink ref="M2" r:id="rId23" xr:uid="{BEA991B2-7E68-F94E-A00A-A02C4DF5B5F5}"/>
+    <hyperlink ref="Q2" r:id="rId24" xr:uid="{896E7927-D3C1-DB43-8FCC-236FADBADF36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
